--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\python\fyp-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5D91E0-6AF6-4551-93DD-12E47C81D25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321436F7-3A9E-493A-BA32-403C2BFCD937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>purchased_at</t>
   </si>
@@ -29,9 +36,6 @@
   </si>
   <si>
     <t>is_in_cart</t>
-  </si>
-  <si>
-    <t>1/12/2024</t>
   </si>
   <si>
     <t>1/30/2024</t>
@@ -65,9 +69,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="1"/>
     </font>
@@ -92,8 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -409,31 +421,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="2" max="2" width="2.8984375" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -445,27 +457,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -475,8 +486,8 @@
       <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="D3" s="1">
+        <v>45362</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -485,16 +496,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>12</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
@@ -502,76 +516,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>45292</v>
+        <v>45547</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
@@ -579,67 +594,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>9</v>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45363</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45424</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45485</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>